--- a/ab_test_data.xlsx
+++ b/ab_test_data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mvahit/Documents/GitHub/dsmlbc/notes/WEEK_08/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/405ed7fe654a4b9c/Desktop/GIT/AB_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB01E61-C178-664F-AA5C-015BEAA008E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4AB01E61-C178-664F-AA5C-015BEAA008E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE98760D-9AE1-4445-AF1C-D68E58CCB699}"/>
   <bookViews>
-    <workbookView xWindow="42240" yWindow="-9860" windowWidth="28800" windowHeight="15940" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="10690" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Group" sheetId="1" r:id="rId1"/>
     <sheet name="Test Group" sheetId="2" r:id="rId2"/>
+    <sheet name="c" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,14 +122,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="İzlenen Köprü" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="İzlenen Köprü" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="İzlenen Köprü" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Köprü" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Köprü" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Köprü" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -412,15 +413,15 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>82529.459271245214</v>
       </c>
@@ -458,7 +459,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>98050.451926393813</v>
       </c>
@@ -482,7 +483,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>82696.023549250618</v>
       </c>
@@ -506,7 +507,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>109914.4003979671</v>
       </c>
@@ -530,7 +531,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>108457.7626296966</v>
       </c>
@@ -554,7 +555,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>77773.633899964479</v>
       </c>
@@ -578,7 +579,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>95110.586266208949</v>
       </c>
@@ -602,7 +603,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>106649.18307494061</v>
       </c>
@@ -626,7 +627,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>122709.7165943505</v>
       </c>
@@ -650,7 +651,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>79498.248657834905</v>
       </c>
@@ -674,7 +675,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>83676.936008106059</v>
       </c>
@@ -698,7 +699,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>132781.0198653691</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>87939.42224826102</v>
       </c>
@@ -746,7 +747,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>117827.0615334318</v>
       </c>
@@ -770,7 +771,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>129146.68958374541</v>
       </c>
@@ -794,7 +795,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>101616.4655489102</v>
       </c>
@@ -818,7 +819,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45475.942964961672</v>
       </c>
@@ -842,7 +843,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>147539.33632859169</v>
       </c>
@@ -866,7 +867,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>82067.899936272588</v>
       </c>
@@ -890,7 +891,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>81872.985723314458</v>
       </c>
@@ -914,7 +915,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>105493.023206778</v>
       </c>
@@ -938,7 +939,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>96122.657620329861</v>
       </c>
@@ -962,7 +963,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>83676.602428117942</v>
       </c>
@@ -986,7 +987,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>80254.331644181279</v>
       </c>
@@ -1010,7 +1011,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>123961.868719497</v>
       </c>
@@ -1034,7 +1035,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>94472.196589024854</v>
       </c>
@@ -1058,7 +1059,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>110479.8068235492</v>
       </c>
@@ -1082,7 +1083,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>136171.2716521672</v>
       </c>
@@ -1106,7 +1107,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>114341.4015464992</v>
       </c>
@@ -1130,7 +1131,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>94923.683704577095</v>
       </c>
@@ -1154,7 +1155,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>108051.82405185531</v>
       </c>
@@ -1169,7 +1170,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>92044.500106692038</v>
       </c>
@@ -1184,7 +1185,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>101530.9502286905</v>
       </c>
@@ -1199,7 +1200,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>94225.520522070423</v>
       </c>
@@ -1214,7 +1215,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>94138.627501976196</v>
       </c>
@@ -1229,7 +1230,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>132064.2190030994</v>
       </c>
@@ -1244,7 +1245,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>86409.941795679595</v>
       </c>
@@ -1259,7 +1260,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>123678.9342344882</v>
       </c>
@@ -1274,7 +1275,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>101997.4940993183</v>
       </c>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>121085.8812204827</v>
       </c>
@@ -1314,19 +1315,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>120103.5037957805</v>
       </c>
@@ -1364,7 +1365,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>134775.9433631069</v>
       </c>
@@ -1388,7 +1389,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>107806.6207879241</v>
       </c>
@@ -1412,7 +1413,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>116445.2755259823</v>
       </c>
@@ -1436,7 +1437,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>145082.51683829931</v>
       </c>
@@ -1460,7 +1461,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>115923.0069492562</v>
       </c>
@@ -1484,7 +1485,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>106116.4366417355</v>
       </c>
@@ -1508,7 +1509,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>125957.11610364199</v>
       </c>
@@ -1532,7 +1533,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>117442.86465245071</v>
       </c>
@@ -1556,7 +1557,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>131271.71560358419</v>
       </c>
@@ -1580,7 +1581,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>96331.365434000036</v>
       </c>
@@ -1604,7 +1605,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>123798.62140472099</v>
       </c>
@@ -1628,7 +1629,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>157681.1597495912</v>
       </c>
@@ -1652,7 +1653,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>117281.76759002919</v>
       </c>
@@ -1676,7 +1677,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>119877.9600501058</v>
       </c>
@@ -1700,7 +1701,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>137222.3814565432</v>
       </c>
@@ -1724,7 +1725,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>134387.1689209012</v>
       </c>
@@ -1748,7 +1749,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>83356.587557991137</v>
       </c>
@@ -1772,7 +1773,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>115934.8543883942</v>
       </c>
@@ -1796,7 +1797,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>115303.70813646571</v>
       </c>
@@ -1820,7 +1821,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>118704.6414991381</v>
       </c>
@@ -1844,7 +1845,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>97507.366847824829</v>
       </c>
@@ -1868,7 +1869,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>129801.48637397859</v>
       </c>
@@ -1892,7 +1893,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>104971.2227557094</v>
       </c>
@@ -1916,7 +1917,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>109569.87770570671</v>
       </c>
@@ -1940,7 +1941,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>113732.6684576901</v>
       </c>
@@ -1964,7 +1965,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>152941.7190271054</v>
       </c>
@@ -1988,7 +1989,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>124669.00340490601</v>
       </c>
@@ -2012,7 +2013,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>120513.457122386</v>
       </c>
@@ -2036,7 +2037,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>117989.2463820706</v>
       </c>
@@ -2060,7 +2061,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>158605.9204830669</v>
       </c>
@@ -2075,7 +2076,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>141367.8484058727</v>
       </c>
@@ -2090,7 +2091,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>122860.3959053875</v>
       </c>
@@ -2105,7 +2106,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>140219.552032048</v>
       </c>
@@ -2120,7 +2121,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>137231.17523443029</v>
       </c>
@@ -2135,7 +2136,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>79234.911928595975</v>
       </c>
@@ -2150,7 +2151,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>130702.2394096042</v>
       </c>
@@ -2165,7 +2166,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>116481.8733653302</v>
       </c>
@@ -2180,7 +2181,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>79033.834920535417</v>
       </c>
@@ -2195,7 +2196,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>102257.45408948899</v>
       </c>
@@ -2213,6 +2214,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A661016-96A7-408E-B2A0-F8AA5A3F9F93}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2430,13 +2445,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AF3F9D3-38F7-4C32-B6B8-04AE15C61D97}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AF3F9D3-38F7-4C32-B6B8-04AE15C61D97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D3B9670-84E6-481F-81E0-7FF558EB8AD9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D3B9670-84E6-481F-81E0-7FF558EB8AD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff3b73be-3a03-43a9-ae2f-6fa573fbfb26"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55046511-3707-4DD4-B849-797E976CDDBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55046511-3707-4DD4-B849-797E976CDDBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ff3b73be-3a03-43a9-ae2f-6fa573fbfb26"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>